--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Documents\GitHub\Forecasting\ARIMAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64204D12-3FC7-48B0-A895-85E5FD522A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313BA97-0A57-441A-A685-A5B9C1BEA0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36B4497A-BFCD-4E28-8C45-D29600A8FC52}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>SALES</t>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>igae</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7EC2B8-0600-4795-A034-780FDDBC6528}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,6 +427,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
